--- a/INEvalidador/archivos/Limpieza.xlsx
+++ b/INEvalidador/archivos/Limpieza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\INEvalidador\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C4371-344C-48A8-AF69-A8EA7B130F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C90033-79CA-4B49-96CE-5D0D02851C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89D7BCC-8A5B-458D-9CF8-1F366A37C367}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NOMBRE ARCHIVO</t>
   </si>
@@ -50,73 +50,16 @@
     <t>VARIABLES A EXPORTAR</t>
   </si>
   <si>
-    <t>RESPUESTA SIN INFO'</t>
-  </si>
-  <si>
-    <t>RESPUESTA 1 SIN INFO'</t>
-  </si>
-  <si>
-    <t>RESPUESTA 2 CON INFO'</t>
-  </si>
-  <si>
-    <t>INDICA PAGO RESPUESTA 1 SIN INFO'</t>
-  </si>
-  <si>
-    <t>INDICA PAGO RESPUESTA 2 CON INFO'</t>
-  </si>
-  <si>
-    <t>INSTITUCION FUERA DE RANGO'</t>
-  </si>
-  <si>
-    <t>INDICA INSTITUCION 98 Y ESPECIFIQUE VACIO'</t>
-  </si>
-  <si>
-    <t>INDICA INSTITUCION  ~=98 Y ESPECIFIQUE LLENO'</t>
-  </si>
-  <si>
-    <t>SIN 1_ER BENEFICIO '</t>
-  </si>
-  <si>
-    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06 P03A01B P03A07 P03A08A P03A08B P03A09 P03A10 P03A10A P03A11 P03A01C P03A12 P03A13A P03A13B P03A14 P03A15 P03A15A P03A16</t>
-  </si>
-  <si>
-    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06</t>
-  </si>
-  <si>
-    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A  P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06 P03A01B P03A07 P03A08A P03A08B P03A09 P03A10 P03A10A P03A11</t>
-  </si>
-  <si>
-    <t>P03A01A es vacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y (P03A02 es vacio o P03A03A es vacio O P03A04 es vacio O P03A05 es vacio O P03A06 es vacio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 2 Y (P03A02 no es vacio O P03A03A no es vacio O P03A03B no es vacio O P03A04 no es vacio O P03A05 no es vacio O P03A05A no es vacio O P03A06 no es vacio) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y P03A03A = 1 Y P03A03B es vacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y P03A03A = 2 Y P03A03B no es vacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A05 no esta en (1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y P03A05 = 98 Y P03A05A es vacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y P03A05 &lt;&gt; 98 Y P03A05A no es vacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 2 Y P03A01B = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P03A01A = 1 Y P03A01B es vacio</t>
+    <t>PRUEBAS_LUIS</t>
+  </si>
+  <si>
+    <t>PREGUNTA 6</t>
+  </si>
+  <si>
+    <t>P05C06A</t>
+  </si>
+  <si>
+    <t>P05C06 = 98 Y P05C06A ES VACIO</t>
   </si>
 </sst>
 </file>
@@ -472,7 +415,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,140 +445,50 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/INEvalidador/archivos/Limpieza.xlsx
+++ b/INEvalidador/archivos/Limpieza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\INEvalidador\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C90033-79CA-4B49-96CE-5D0D02851C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE90D35-D630-4C59-8CCC-9880CA4E3264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89D7BCC-8A5B-458D-9CF8-1F366A37C367}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>P05C06A</t>
   </si>
   <si>
-    <t>P05C06 = 98 Y P05C06A ES VACIO</t>
+    <t>P05C06 = 98 Y P05C06A es vacio</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INEvalidador/archivos/Limpieza.xlsx
+++ b/INEvalidador/archivos/Limpieza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\INEvalidador\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE90D35-D630-4C59-8CCC-9880CA4E3264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAB152-5B74-47E2-859F-92DCEFD045FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89D7BCC-8A5B-458D-9CF8-1F366A37C367}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NOMBRE ARCHIVO</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>P05C06 = 98 Y P05C06A es vacio</t>
+  </si>
+  <si>
+    <t>Prueba Majo</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>PPA03 es vacio</t>
+  </si>
+  <si>
+    <t>PPA03, DEPTO</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,8 +467,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
